--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tnc-Itga7.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tnc-Itga7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itga7</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H2">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I2">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J2">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.88440375340634</v>
+        <v>3.676435666666666</v>
       </c>
       <c r="N2">
-        <v>2.88440375340634</v>
+        <v>11.029307</v>
       </c>
       <c r="O2">
-        <v>0.0452549631030352</v>
+        <v>0.05596928005870617</v>
       </c>
       <c r="P2">
-        <v>0.0452549631030352</v>
+        <v>0.07888124434163156</v>
       </c>
       <c r="Q2">
-        <v>4.345114637082532</v>
+        <v>22.04478937641478</v>
       </c>
       <c r="R2">
-        <v>4.345114637082532</v>
+        <v>198.403104387733</v>
       </c>
       <c r="S2">
-        <v>0.0004432825430770245</v>
+        <v>0.001538359342528011</v>
       </c>
       <c r="T2">
-        <v>0.0004432825430770245</v>
+        <v>0.00230767721371449</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H3">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I3">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J3">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.29197669643</v>
+        <v>3.794922333333334</v>
       </c>
       <c r="N3">
-        <v>3.29197669643</v>
+        <v>11.384767</v>
       </c>
       <c r="O3">
-        <v>0.05164959439435457</v>
+        <v>0.05777309604548284</v>
       </c>
       <c r="P3">
-        <v>0.05164959439435457</v>
+        <v>0.08142348268114613</v>
       </c>
       <c r="Q3">
-        <v>4.959089417249665</v>
+        <v>22.75526382705256</v>
       </c>
       <c r="R3">
-        <v>4.959089417249665</v>
+        <v>204.797374443473</v>
       </c>
       <c r="S3">
-        <v>0.000505919394960036</v>
+        <v>0.001587938632676976</v>
       </c>
       <c r="T3">
-        <v>0.000505919394960036</v>
+        <v>0.002382050602938941</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H4">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I4">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J4">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.342201462243654</v>
+        <v>0.477427</v>
       </c>
       <c r="N4">
-        <v>0.342201462243654</v>
+        <v>1.432281</v>
       </c>
       <c r="O4">
-        <v>0.005368982941224049</v>
+        <v>0.007268247806663079</v>
       </c>
       <c r="P4">
-        <v>0.005368982941224049</v>
+        <v>0.01024362704990227</v>
       </c>
       <c r="Q4">
-        <v>0.5154980750076978</v>
+        <v>2.862766715337667</v>
       </c>
       <c r="R4">
-        <v>0.5154980750076978</v>
+        <v>25.764900438039</v>
       </c>
       <c r="S4">
-        <v>5.259039558830922E-05</v>
+        <v>0.0001997734633259699</v>
       </c>
       <c r="T4">
-        <v>5.259039558830922E-05</v>
+        <v>0.000299678141821259</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H5">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I5">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J5">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.208113116433968</v>
+        <v>0.4995396666666667</v>
       </c>
       <c r="N5">
-        <v>0.208113116433968</v>
+        <v>1.498619</v>
       </c>
       <c r="O5">
-        <v>0.00326519870678802</v>
+        <v>0.007604886373395734</v>
       </c>
       <c r="P5">
-        <v>0.00326519870678802</v>
+        <v>0.01071807426468513</v>
       </c>
       <c r="Q5">
-        <v>0.3135051212293669</v>
+        <v>2.995359564340111</v>
       </c>
       <c r="R5">
-        <v>0.3135051212293669</v>
+        <v>26.958236079061</v>
       </c>
       <c r="S5">
-        <v>3.198335579462066E-05</v>
+        <v>0.0002090262370555091</v>
       </c>
       <c r="T5">
-        <v>3.198335579462066E-05</v>
+        <v>0.0003135581336469822</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H6">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I6">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J6">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0100435660842</v>
+        <v>57.23834600000001</v>
       </c>
       <c r="N6">
-        <v>57.0100435660842</v>
+        <v>114.476692</v>
       </c>
       <c r="O6">
-        <v>0.8944612608545981</v>
+        <v>0.8713844897157522</v>
       </c>
       <c r="P6">
-        <v>0.8944612608545981</v>
+        <v>0.8187335716626348</v>
       </c>
       <c r="Q6">
-        <v>85.88089461025204</v>
+        <v>343.2148407395914</v>
       </c>
       <c r="R6">
-        <v>85.88089461025204</v>
+        <v>2059.289044437548</v>
       </c>
       <c r="S6">
-        <v>0.008761449246854324</v>
+        <v>0.02395068275457856</v>
       </c>
       <c r="T6">
-        <v>0.008761449246854324</v>
+        <v>0.02395211717561329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H7">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I7">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J7">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.88440375340634</v>
+        <v>3.676435666666666</v>
       </c>
       <c r="N7">
-        <v>2.88440375340634</v>
+        <v>11.029307</v>
       </c>
       <c r="O7">
-        <v>0.0452549631030352</v>
+        <v>0.05596928005870617</v>
       </c>
       <c r="P7">
-        <v>0.0452549631030352</v>
+        <v>0.07888124434163156</v>
       </c>
       <c r="Q7">
-        <v>399.1213613630765</v>
+        <v>633.9381266601638</v>
       </c>
       <c r="R7">
-        <v>399.1213613630765</v>
+        <v>5705.443139941474</v>
       </c>
       <c r="S7">
-        <v>0.04071780536040851</v>
+        <v>0.04423832875335792</v>
       </c>
       <c r="T7">
-        <v>0.04071780536040851</v>
+        <v>0.06636146732087449</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H8">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I8">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J8">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.29197669643</v>
+        <v>3.794922333333334</v>
       </c>
       <c r="N8">
-        <v>3.29197669643</v>
+        <v>11.384767</v>
       </c>
       <c r="O8">
-        <v>0.05164959439435457</v>
+        <v>0.05777309604548284</v>
       </c>
       <c r="P8">
-        <v>0.05164959439435457</v>
+        <v>0.08142348268114613</v>
       </c>
       <c r="Q8">
-        <v>455.518135802942</v>
+        <v>654.3691153435528</v>
       </c>
       <c r="R8">
-        <v>455.518135802942</v>
+        <v>5889.322038091975</v>
       </c>
       <c r="S8">
-        <v>0.04647132573515071</v>
+        <v>0.0456640716707206</v>
       </c>
       <c r="T8">
-        <v>0.04647132573515071</v>
+        <v>0.06850020977984114</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H9">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I9">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J9">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.342201462243654</v>
+        <v>0.477427</v>
       </c>
       <c r="N9">
-        <v>0.342201462243654</v>
+        <v>1.432281</v>
       </c>
       <c r="O9">
-        <v>0.005368982941224049</v>
+        <v>0.007268247806663079</v>
       </c>
       <c r="P9">
-        <v>0.005368982941224049</v>
+        <v>0.01024362704990227</v>
       </c>
       <c r="Q9">
-        <v>47.3511772787802</v>
+        <v>82.32407838415834</v>
       </c>
       <c r="R9">
-        <v>47.3511772787802</v>
+        <v>740.916705457425</v>
       </c>
       <c r="S9">
-        <v>0.004830701151747316</v>
+        <v>0.005744850310648551</v>
       </c>
       <c r="T9">
-        <v>0.004830701151747316</v>
+        <v>0.008617791559869487</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H10">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I10">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J10">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.208113116433968</v>
+        <v>0.4995396666666667</v>
       </c>
       <c r="N10">
-        <v>0.208113116433968</v>
+        <v>1.498619</v>
       </c>
       <c r="O10">
-        <v>0.00326519870678802</v>
+        <v>0.007604886373395734</v>
       </c>
       <c r="P10">
-        <v>0.00326519870678802</v>
+        <v>0.01071807426468513</v>
       </c>
       <c r="Q10">
-        <v>28.79707469890272</v>
+        <v>86.13702759723056</v>
       </c>
       <c r="R10">
-        <v>28.79707469890272</v>
+        <v>775.2332483750749</v>
       </c>
       <c r="S10">
-        <v>0.002937837450079265</v>
+        <v>0.006010930695648284</v>
       </c>
       <c r="T10">
-        <v>0.002937837450079265</v>
+        <v>0.009016936040944513</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H11">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I11">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J11">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0100435660842</v>
+        <v>57.23834600000001</v>
       </c>
       <c r="N11">
-        <v>57.0100435660842</v>
+        <v>114.476692</v>
       </c>
       <c r="O11">
-        <v>0.8944612608545981</v>
+        <v>0.8713844897157522</v>
       </c>
       <c r="P11">
-        <v>0.8944612608545981</v>
+        <v>0.8187335716626348</v>
       </c>
       <c r="Q11">
-        <v>7888.606500595679</v>
+        <v>9869.768745135018</v>
       </c>
       <c r="R11">
-        <v>7888.606500595679</v>
+        <v>59218.61247081011</v>
       </c>
       <c r="S11">
-        <v>0.804784647354191</v>
+        <v>0.688745566964393</v>
       </c>
       <c r="T11">
-        <v>0.804784647354191</v>
+        <v>0.6887868163575296</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>13.9123071549377</v>
+        <v>0.08681966666666667</v>
       </c>
       <c r="H12">
-        <v>13.9123071549377</v>
+        <v>0.260459</v>
       </c>
       <c r="I12">
-        <v>0.09046245801214881</v>
+        <v>0.0003979671306811982</v>
       </c>
       <c r="J12">
-        <v>0.09046245801214881</v>
+        <v>0.0004235848707133055</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.88440375340634</v>
+        <v>3.676435666666666</v>
       </c>
       <c r="N12">
-        <v>2.88440375340634</v>
+        <v>11.029307</v>
       </c>
       <c r="O12">
-        <v>0.0452549631030352</v>
+        <v>0.05596928005870617</v>
       </c>
       <c r="P12">
-        <v>0.0452549631030352</v>
+        <v>0.07888124434163156</v>
       </c>
       <c r="Q12">
-        <v>40.12871097624418</v>
+        <v>0.3191869191014444</v>
       </c>
       <c r="R12">
-        <v>40.12871097624418</v>
+        <v>2.872682271913</v>
       </c>
       <c r="S12">
-        <v>0.004093875199549665</v>
+        <v>2.22739337912557E-05</v>
       </c>
       <c r="T12">
-        <v>0.004093875199549665</v>
+        <v>3.341290168615466E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>13.9123071549377</v>
+        <v>0.08681966666666667</v>
       </c>
       <c r="H13">
-        <v>13.9123071549377</v>
+        <v>0.260459</v>
       </c>
       <c r="I13">
-        <v>0.09046245801214881</v>
+        <v>0.0003979671306811982</v>
       </c>
       <c r="J13">
-        <v>0.09046245801214881</v>
+        <v>0.0004235848707133055</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.29197669643</v>
+        <v>3.794922333333334</v>
       </c>
       <c r="N13">
-        <v>3.29197669643</v>
+        <v>11.384767</v>
       </c>
       <c r="O13">
-        <v>0.05164959439435457</v>
+        <v>0.05777309604548284</v>
       </c>
       <c r="P13">
-        <v>0.05164959439435457</v>
+        <v>0.08142348268114613</v>
       </c>
       <c r="Q13">
-        <v>45.79899094763126</v>
+        <v>0.3294738920058889</v>
       </c>
       <c r="R13">
-        <v>45.79899094763126</v>
+        <v>2.965265028053</v>
       </c>
       <c r="S13">
-        <v>0.004672349264243816</v>
+        <v>2.299179326379008E-05</v>
       </c>
       <c r="T13">
-        <v>0.004672349264243816</v>
+        <v>3.448975538452035E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>13.9123071549377</v>
+        <v>0.08681966666666667</v>
       </c>
       <c r="H14">
-        <v>13.9123071549377</v>
+        <v>0.260459</v>
       </c>
       <c r="I14">
-        <v>0.09046245801214881</v>
+        <v>0.0003979671306811982</v>
       </c>
       <c r="J14">
-        <v>0.09046245801214881</v>
+        <v>0.0004235848707133055</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.342201462243654</v>
+        <v>0.477427</v>
       </c>
       <c r="N14">
-        <v>0.342201462243654</v>
+        <v>1.432281</v>
       </c>
       <c r="O14">
-        <v>0.005368982941224049</v>
+        <v>0.007268247806663079</v>
       </c>
       <c r="P14">
-        <v>0.005368982941224049</v>
+        <v>0.01024362704990227</v>
       </c>
       <c r="Q14">
-        <v>4.760811851602531</v>
+        <v>0.04145005299766667</v>
       </c>
       <c r="R14">
-        <v>4.760811851602531</v>
+        <v>0.373050476979</v>
       </c>
       <c r="S14">
-        <v>0.0004856913938884237</v>
+        <v>2.892523724697618E-06</v>
       </c>
       <c r="T14">
-        <v>0.0004856913938884237</v>
+        <v>4.33904543956817E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>13.9123071549377</v>
+        <v>0.08681966666666667</v>
       </c>
       <c r="H15">
-        <v>13.9123071549377</v>
+        <v>0.260459</v>
       </c>
       <c r="I15">
-        <v>0.09046245801214881</v>
+        <v>0.0003979671306811982</v>
       </c>
       <c r="J15">
-        <v>0.09046245801214881</v>
+        <v>0.0004235848707133055</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.208113116433968</v>
+        <v>0.4995396666666667</v>
       </c>
       <c r="N15">
-        <v>0.208113116433968</v>
+        <v>1.498619</v>
       </c>
       <c r="O15">
-        <v>0.00326519870678802</v>
+        <v>0.007604886373395734</v>
       </c>
       <c r="P15">
-        <v>0.00326519870678802</v>
+        <v>0.01071807426468513</v>
       </c>
       <c r="Q15">
-        <v>2.895333598800676</v>
+        <v>0.04336986734677778</v>
       </c>
       <c r="R15">
-        <v>2.895333598800676</v>
+        <v>0.390328806121</v>
       </c>
       <c r="S15">
-        <v>0.0002953779009141338</v>
+        <v>3.026494809176843E-06</v>
       </c>
       <c r="T15">
-        <v>0.0002953779009141338</v>
+        <v>4.540014101702257E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.08681966666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.260459</v>
+      </c>
+      <c r="I16">
+        <v>0.0003979671306811982</v>
+      </c>
+      <c r="J16">
+        <v>0.0004235848707133055</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>57.23834600000001</v>
+      </c>
+      <c r="N16">
+        <v>114.476692</v>
+      </c>
+      <c r="O16">
+        <v>0.8713844897157522</v>
+      </c>
+      <c r="P16">
+        <v>0.8187335716626348</v>
+      </c>
+      <c r="Q16">
+        <v>4.969414120271334</v>
+      </c>
+      <c r="R16">
+        <v>29.816484721628</v>
+      </c>
+      <c r="S16">
+        <v>0.000346782385092278</v>
+      </c>
+      <c r="T16">
+        <v>0.00034680315410136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.181466</v>
+      </c>
+      <c r="I17">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J17">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.676435666666666</v>
+      </c>
+      <c r="N17">
+        <v>11.029307</v>
+      </c>
+      <c r="O17">
+        <v>0.05596928005870617</v>
+      </c>
+      <c r="P17">
+        <v>0.07888124434163156</v>
+      </c>
+      <c r="Q17">
+        <v>0.2223826915624444</v>
+      </c>
+      <c r="R17">
+        <v>2.001444224062</v>
+      </c>
+      <c r="S17">
+        <v>1.55186101050991E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.327930928622064E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.181466</v>
+      </c>
+      <c r="I18">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J18">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.794922333333334</v>
+      </c>
+      <c r="N18">
+        <v>11.384767</v>
+      </c>
+      <c r="O18">
+        <v>0.05777309604548284</v>
+      </c>
+      <c r="P18">
+        <v>0.08142348268114613</v>
+      </c>
+      <c r="Q18">
+        <v>0.2295497920468889</v>
+      </c>
+      <c r="R18">
+        <v>2.065948128422</v>
+      </c>
+      <c r="S18">
+        <v>1.601875441588477E-05</v>
+      </c>
+      <c r="T18">
+        <v>2.402957068332202E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.181466</v>
+      </c>
+      <c r="I19">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J19">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.477427</v>
+      </c>
+      <c r="N19">
+        <v>1.432281</v>
+      </c>
+      <c r="O19">
+        <v>0.007268247806663079</v>
+      </c>
+      <c r="P19">
+        <v>0.01024362704990227</v>
+      </c>
+      <c r="Q19">
+        <v>0.02887892266066667</v>
+      </c>
+      <c r="R19">
+        <v>0.259910303946</v>
+      </c>
+      <c r="S19">
+        <v>2.01526808528781E-06</v>
+      </c>
+      <c r="T19">
+        <v>3.023083171388501E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H20">
+        <v>0.181466</v>
+      </c>
+      <c r="I20">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J20">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.4995396666666667</v>
+      </c>
+      <c r="N20">
+        <v>1.498619</v>
+      </c>
+      <c r="O20">
+        <v>0.007604886373395734</v>
+      </c>
+      <c r="P20">
+        <v>0.01071807426468513</v>
+      </c>
+      <c r="Q20">
+        <v>0.03021648838377778</v>
+      </c>
+      <c r="R20">
+        <v>0.271948395454</v>
+      </c>
+      <c r="S20">
+        <v>2.108607907740124E-06</v>
+      </c>
+      <c r="T20">
+        <v>3.16310129033553E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H21">
+        <v>0.181466</v>
+      </c>
+      <c r="I21">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J21">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>57.23834600000001</v>
+      </c>
+      <c r="N21">
+        <v>114.476692</v>
+      </c>
+      <c r="O21">
+        <v>0.8713844897157522</v>
+      </c>
+      <c r="P21">
+        <v>0.8187335716626348</v>
+      </c>
+      <c r="Q21">
+        <v>3.462271231745333</v>
+      </c>
+      <c r="R21">
+        <v>20.773627390472</v>
+      </c>
+      <c r="S21">
+        <v>0.0002416088992630521</v>
+      </c>
+      <c r="T21">
+        <v>0.00024162336936776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>39.5815265</v>
+      </c>
+      <c r="H22">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I22">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J22">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.676435666666666</v>
+      </c>
+      <c r="N22">
+        <v>11.029307</v>
+      </c>
+      <c r="O22">
+        <v>0.05596928005870617</v>
+      </c>
+      <c r="P22">
+        <v>0.07888124434163156</v>
+      </c>
+      <c r="Q22">
+        <v>145.5189357657118</v>
+      </c>
+      <c r="R22">
+        <v>873.1136145942709</v>
+      </c>
+      <c r="S22">
+        <v>0.01015479941892389</v>
+      </c>
+      <c r="T22">
+        <v>0.01015540759607021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>39.5815265</v>
+      </c>
+      <c r="H23">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I23">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J23">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.794922333333334</v>
+      </c>
+      <c r="N23">
+        <v>11.384767</v>
+      </c>
+      <c r="O23">
+        <v>0.05777309604548284</v>
+      </c>
+      <c r="P23">
+        <v>0.08142348268114613</v>
+      </c>
+      <c r="Q23">
+        <v>150.2088189022752</v>
+      </c>
+      <c r="R23">
+        <v>901.252913413651</v>
+      </c>
+      <c r="S23">
+        <v>0.01048207519440559</v>
+      </c>
+      <c r="T23">
+        <v>0.01048270297229821</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>13.9123071549377</v>
-      </c>
-      <c r="H16">
-        <v>13.9123071549377</v>
-      </c>
-      <c r="I16">
-        <v>0.09046245801214881</v>
-      </c>
-      <c r="J16">
-        <v>0.09046245801214881</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>57.0100435660842</v>
-      </c>
-      <c r="N16">
-        <v>57.0100435660842</v>
-      </c>
-      <c r="O16">
-        <v>0.8944612608545981</v>
-      </c>
-      <c r="P16">
-        <v>0.8944612608545981</v>
-      </c>
-      <c r="Q16">
-        <v>793.1412370077433</v>
-      </c>
-      <c r="R16">
-        <v>793.1412370077433</v>
-      </c>
-      <c r="S16">
-        <v>0.08091516425355276</v>
-      </c>
-      <c r="T16">
-        <v>0.08091516425355276</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>39.5815265</v>
+      </c>
+      <c r="H24">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I24">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J24">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.477427</v>
+      </c>
+      <c r="N24">
+        <v>1.432281</v>
+      </c>
+      <c r="O24">
+        <v>0.007268247806663079</v>
+      </c>
+      <c r="P24">
+        <v>0.01024362704990227</v>
+      </c>
+      <c r="Q24">
+        <v>18.8972894523155</v>
+      </c>
+      <c r="R24">
+        <v>113.383736713893</v>
+      </c>
+      <c r="S24">
+        <v>0.001318716240878573</v>
+      </c>
+      <c r="T24">
+        <v>0.001318795219600564</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>39.5815265</v>
+      </c>
+      <c r="H25">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I25">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J25">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4995396666666667</v>
+      </c>
+      <c r="N25">
+        <v>1.498619</v>
+      </c>
+      <c r="O25">
+        <v>0.007604886373395734</v>
+      </c>
+      <c r="P25">
+        <v>0.01071807426468513</v>
+      </c>
+      <c r="Q25">
+        <v>19.77254255396783</v>
+      </c>
+      <c r="R25">
+        <v>118.635255323807</v>
+      </c>
+      <c r="S25">
+        <v>0.001379794337975025</v>
+      </c>
+      <c r="T25">
+        <v>0.001379876974701596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>39.5815265</v>
+      </c>
+      <c r="H26">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I26">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J26">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>57.23834600000001</v>
+      </c>
+      <c r="N26">
+        <v>114.476692</v>
+      </c>
+      <c r="O26">
+        <v>0.8713844897157522</v>
+      </c>
+      <c r="P26">
+        <v>0.8187335716626348</v>
+      </c>
+      <c r="Q26">
+        <v>2265.581109015169</v>
+      </c>
+      <c r="R26">
+        <v>9062.324436060677</v>
+      </c>
+      <c r="S26">
+        <v>0.1580998487124254</v>
+      </c>
+      <c r="T26">
+        <v>0.1054062116060229</v>
       </c>
     </row>
   </sheetData>
